--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1042653898338662</v>
+        <v>0.08474199241993637</v>
       </c>
       <c r="H2" t="n">
-        <v>24.32121346556687</v>
+        <v>1.042420173395213</v>
       </c>
       <c r="I2" t="n">
-        <v>24.13849863104113</v>
+        <v>23.59358390711208</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1329773794179144</v>
+        <v>0.1232941647648896</v>
       </c>
       <c r="H3" t="n">
-        <v>14.28521001990647</v>
+        <v>5.96313129393865</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01020435046322826</v>
+        <v>-0.02606606164238651</v>
       </c>
       <c r="H4" t="n">
-        <v>-166.1534265787397</v>
+        <v>-68.98275899777352</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.008357041324902482</v>
+        <v>-0.01036525652738265</v>
       </c>
       <c r="H5" t="n">
-        <v>-88.36903741274094</v>
+        <v>85.57409181188447</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03249871204369994</v>
+        <v>0.03386128906426435</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.571939806583824</v>
+        <v>-4.738625622107443</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05366943150361029</v>
+        <v>0.04884726572672313</v>
       </c>
       <c r="H7" t="n">
-        <v>164.4452894821463</v>
+        <v>140.6850410674777</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1590058925222151</v>
+        <v>-0.1498574066992334</v>
       </c>
       <c r="H8" t="n">
-        <v>12.69189420312641</v>
+        <v>-6.208108098544041</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1405252761826868</v>
+        <v>-0.1342423540895483</v>
       </c>
       <c r="H9" t="n">
-        <v>2.657860638995289</v>
+        <v>1.931999336120997</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05383924679566987</v>
+        <v>-0.06389265820825843</v>
       </c>
       <c r="H10" t="n">
-        <v>-50.1613620431659</v>
+        <v>40.85498497729278</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08954316591324007</v>
+        <v>-0.07570387819327916</v>
       </c>
       <c r="H11" t="n">
-        <v>34.56869014038445</v>
+        <v>-13.77051082700729</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3593772585134418</v>
+        <v>-0.355145767195666</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.4440171440188</v>
+        <v>14.46317147635376</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3458351818256374</v>
+        <v>-0.38328291969247</v>
       </c>
       <c r="H13" t="n">
-        <v>-22.95931091846034</v>
+        <v>14.61718819232252</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04763098565980801</v>
+        <v>-0.04731702611729585</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.119380627703914</v>
+        <v>6.738194534252047</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03380541979773292</v>
+        <v>-0.03398353532849006</v>
       </c>
       <c r="H15" t="n">
-        <v>-59.11859697032354</v>
+        <v>58.90319917783064</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1020341094641729</v>
+        <v>0.1176299041054609</v>
       </c>
       <c r="H16" t="n">
-        <v>-30.12448106371904</v>
+        <v>-19.44408948185969</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1435929875252267</v>
+        <v>0.1696191756508549</v>
       </c>
       <c r="H17" t="n">
-        <v>17.10263270143284</v>
+        <v>38.32745155380473</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1189673119908147</v>
+        <v>0.1257455380488698</v>
       </c>
       <c r="H18" t="n">
-        <v>-14.07645927989419</v>
+        <v>-9.180919715594834</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1512454281237749</v>
+        <v>0.1554091097657176</v>
       </c>
       <c r="H19" t="n">
-        <v>58.52697671063672</v>
+        <v>62.89111433033775</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03774273637876289</v>
+        <v>0.02851946484408382</v>
       </c>
       <c r="H20" t="n">
-        <v>47.23671531186797</v>
+        <v>11.25617082861953</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06767773671986074</v>
+        <v>0.0571340621353415</v>
       </c>
       <c r="H21" t="n">
-        <v>-9.963633768748775</v>
+        <v>-23.99061209759593</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09394077359780514</v>
+        <v>0.08777057322145604</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.467502276207945</v>
+        <v>-12.61088635272248</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1663282896522781</v>
+        <v>0.1627668706529699</v>
       </c>
       <c r="H25" t="n">
-        <v>9.75393844940808</v>
+        <v>7.403888662569121</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08253879226748566</v>
+        <v>0.07314343790096881</v>
       </c>
       <c r="H26" t="n">
-        <v>4.314809766034679</v>
+        <v>-7.559299080282517</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08791616374997434</v>
+        <v>0.09029633928040119</v>
       </c>
       <c r="H27" t="n">
-        <v>-11.95407511411075</v>
+        <v>-9.570386529117695</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2418318606944766</v>
+        <v>-0.2418225063297041</v>
       </c>
       <c r="H28" t="n">
-        <v>13.47259101828286</v>
+        <v>-13.46820175375412</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2185634222216344</v>
+        <v>-0.2096819259979749</v>
       </c>
       <c r="H29" t="n">
-        <v>6.457045938259198</v>
+        <v>-2.13108031294146</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06225568482818031</v>
+        <v>0.04901987756793426</v>
       </c>
       <c r="H30" t="n">
-        <v>41.06813406471632</v>
+        <v>11.07648529888407</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04347051298119108</v>
+        <v>0.03159286549917024</v>
       </c>
       <c r="H31" t="n">
-        <v>65.07928582228672</v>
+        <v>19.97391601840917</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08179737153124345</v>
+        <v>0.1000229799695457</v>
       </c>
       <c r="H32" t="n">
-        <v>-13.86169619783372</v>
+        <v>5.331133195689698</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08179737153124345</v>
+        <v>0.1398811186130419</v>
       </c>
       <c r="H33" t="n">
-        <v>-21.32211756635173</v>
+        <v>34.54650190954391</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05194742585006128</v>
+        <v>0.04629473990802215</v>
       </c>
       <c r="H34" t="n">
-        <v>11.88888439923823</v>
+        <v>-0.2863622768830413</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03936536263815824</v>
+        <v>0.02024525192158527</v>
       </c>
       <c r="H35" t="n">
-        <v>419.5699798547341</v>
+        <v>167.2101672157798</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03765690095760701</v>
+        <v>0.06121738559377108</v>
       </c>
       <c r="H36" t="n">
-        <v>-34.77771138092206</v>
+        <v>6.029383464062114</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08675000338406239</v>
+        <v>0.09505657619121473</v>
       </c>
       <c r="H37" t="n">
-        <v>23.35381906339153</v>
+        <v>35.16531692067698</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03030705384489551</v>
+        <v>0.02786707858175142</v>
       </c>
       <c r="H38" t="n">
-        <v>-42.14710828016545</v>
+        <v>-46.80475746705679</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03837800177030908</v>
+        <v>0.0415705448348859</v>
       </c>
       <c r="H39" t="n">
-        <v>85.06723390834222</v>
+        <v>100.4623844331303</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002081107154758954</v>
+        <v>0.005199291201779043</v>
       </c>
       <c r="H40" t="n">
-        <v>-124.5095951379804</v>
+        <v>161.2330422624623</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02490794927548897</v>
+        <v>0.03048685014122112</v>
       </c>
       <c r="H41" t="n">
-        <v>-29.55070674378705</v>
+        <v>-13.7714220347054</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1475209410077582</v>
+        <v>0.1439807322537644</v>
       </c>
       <c r="H42" t="n">
-        <v>10.34872926517662</v>
+        <v>7.700579553901894</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1498860373668251</v>
+        <v>0.1485117435490588</v>
       </c>
       <c r="H43" t="n">
-        <v>0.610635829696201</v>
+        <v>-0.3118555327506884</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.008426531597226826</v>
+        <v>-0.004225429036736303</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.9980598124489889</v>
+        <v>50.35612601282124</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01333021625820248</v>
+        <v>-0.001142573481500866</v>
       </c>
       <c r="H45" t="n">
-        <v>21.40601169166659</v>
+        <v>89.59392055111434</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01778748918684714</v>
+        <v>0.007570830599660347</v>
       </c>
       <c r="H46" t="n">
-        <v>-640.1530886586671</v>
+        <v>329.9035849951198</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02525116166122128</v>
+        <v>-0.02170929581755342</v>
       </c>
       <c r="H47" t="n">
-        <v>172.1475789196552</v>
+        <v>-133.9746731680467</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06008205837836283</v>
+        <v>0.04951042073931265</v>
       </c>
       <c r="H48" t="n">
-        <v>19.51369451811728</v>
+        <v>-1.515136807752838</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07719217916929991</v>
+        <v>0.07308149737294023</v>
       </c>
       <c r="H49" t="n">
-        <v>16.84315746443001</v>
+        <v>10.62095923674684</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1453322263797018</v>
+        <v>0.1699639866851714</v>
       </c>
       <c r="H50" t="n">
-        <v>-9.875780122141716</v>
+        <v>5.399002608764649</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1761991081169129</v>
+        <v>0.1456389746321311</v>
       </c>
       <c r="H51" t="n">
-        <v>2.971188878450416</v>
+        <v>-14.88822772611109</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1679644531349452</v>
+        <v>-0.1664366200929072</v>
       </c>
       <c r="H52" t="n">
-        <v>4.695757953040235</v>
+        <v>-3.743427651143814</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1377146316863114</v>
+        <v>-0.1287061054412911</v>
       </c>
       <c r="H53" t="n">
-        <v>9.250071436836707</v>
+        <v>-2.10353861198138</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.117158746549553</v>
+        <v>0.1324501758550223</v>
       </c>
       <c r="H54" t="n">
-        <v>25.0061378611439</v>
+        <v>41.32179995338848</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1028689024549396</v>
+        <v>0.1250001293916364</v>
       </c>
       <c r="H55" t="n">
-        <v>-9.030577256885188</v>
+        <v>10.54059431180212</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02649399740000864</v>
+        <v>-0.02769906760815561</v>
       </c>
       <c r="H56" t="n">
-        <v>262.8931186817857</v>
+        <v>-279.3991852999104</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.008706185270534952</v>
+        <v>-0.02168662540772742</v>
       </c>
       <c r="H57" t="n">
-        <v>-61.92750988205719</v>
+        <v>5.163535363577587</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03635620929817262</v>
+        <v>0.06698151312512451</v>
       </c>
       <c r="H58" t="n">
-        <v>-35.52488652132943</v>
+        <v>18.78687968529585</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04680040429646874</v>
+        <v>0.06585844772891644</v>
       </c>
       <c r="H59" t="n">
-        <v>-34.83646263306962</v>
+        <v>-8.300590902478756</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06891564160135367</v>
+        <v>0.05890242968896087</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.512436829636553</v>
+        <v>-15.82234990371945</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07682192654536575</v>
+        <v>0.07271139302061902</v>
       </c>
       <c r="H61" t="n">
-        <v>61.63922236343651</v>
+        <v>52.9903447276155</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.067284285587231</v>
+        <v>0.07626640707222895</v>
       </c>
       <c r="H62" t="n">
-        <v>-7.779627803464185</v>
+        <v>4.531338705753103</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08128590768018426</v>
+        <v>0.06804087353861099</v>
       </c>
       <c r="H63" t="n">
-        <v>24.30272432834175</v>
+        <v>4.048366905193829</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.05084499149044401</v>
+        <v>-0.0317303215415714</v>
       </c>
       <c r="H64" t="n">
-        <v>22.76800283389019</v>
+        <v>23.38540944257976</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01752555263744317</v>
+        <v>0.009559373620914576</v>
       </c>
       <c r="H65" t="n">
-        <v>-64.46829839425368</v>
+        <v>119.3808901814884</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03743555716143331</v>
+        <v>0.02716256529430541</v>
       </c>
       <c r="H66" t="n">
-        <v>97.71630814984032</v>
+        <v>43.45938826848288</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01911024613775087</v>
+        <v>0.01961745882999849</v>
       </c>
       <c r="H67" t="n">
-        <v>-26.92034587033539</v>
+        <v>-24.9807095175409</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01073151126388964</v>
+        <v>0.003938328107505674</v>
       </c>
       <c r="H68" t="n">
-        <v>1782.875286121996</v>
+        <v>590.9912760576408</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0008354069123374668</v>
+        <v>0.01171122498132751</v>
       </c>
       <c r="H69" t="n">
-        <v>-106.4698502425848</v>
+        <v>190.6981623774254</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.02521362896199172</v>
+        <v>-0.03948035243566413</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.140606272340319</v>
+        <v>-43.83654349643278</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02845769231023079</v>
+        <v>-0.03306707538665055</v>
       </c>
       <c r="H71" t="n">
-        <v>-48.34509978507956</v>
+        <v>39.97839104885473</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1188068209466386</v>
+        <v>-0.1293312793781893</v>
       </c>
       <c r="H72" t="n">
-        <v>-19.90595287194384</v>
+        <v>12.81085123638627</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1559234659488188</v>
+        <v>-0.1461414291459345</v>
       </c>
       <c r="H73" t="n">
-        <v>7.689510709459812</v>
+        <v>-0.933486203242633</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1373173364420116</v>
+        <v>0.146236662701106</v>
       </c>
       <c r="H74" t="n">
-        <v>8.937827835265811</v>
+        <v>16.01378818809507</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1434593133142505</v>
+        <v>0.146585111236492</v>
       </c>
       <c r="H75" t="n">
-        <v>6.130957221548189</v>
+        <v>8.443417234805935</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.05595638898396183</v>
+        <v>-0.04758209433378748</v>
       </c>
       <c r="H76" t="n">
-        <v>62.48469215338487</v>
+        <v>-38.16763537144495</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.007346948601922088</v>
+        <v>-0.03536116151610885</v>
       </c>
       <c r="H77" t="n">
-        <v>-84.09304056366322</v>
+        <v>23.43915925703632</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08850841162713242</v>
+        <v>0.07833183570200634</v>
       </c>
       <c r="H78" t="n">
-        <v>-3.974249125074991</v>
+        <v>-15.01515841924144</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08577322566390957</v>
+        <v>0.1038733755289636</v>
       </c>
       <c r="H79" t="n">
-        <v>-11.11990803673463</v>
+        <v>7.635863034048246</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1734524716558161</v>
+        <v>-0.1925323710809149</v>
       </c>
       <c r="H80" t="n">
-        <v>6.797253230226255</v>
+        <v>-18.54502961563816</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1934144511186585</v>
+        <v>-0.1851666689320838</v>
       </c>
       <c r="H81" t="n">
-        <v>-10.64179764109014</v>
+        <v>14.45230396767276</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.157407681181961</v>
+        <v>0.1630484570105964</v>
       </c>
       <c r="H82" t="n">
-        <v>13.45001986247613</v>
+        <v>17.51555291012132</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2040610490276384</v>
+        <v>0.1947080810003642</v>
       </c>
       <c r="H83" t="n">
-        <v>23.95914900284218</v>
+        <v>18.277584770784</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02925461582680532</v>
+        <v>0.007823077013249097</v>
       </c>
       <c r="H84" t="n">
-        <v>109.0357857549066</v>
+        <v>-44.101024598406</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0428767116454486</v>
+        <v>0.03253500298388964</v>
       </c>
       <c r="H85" t="n">
-        <v>89.39159735325987</v>
+        <v>43.71102513562325</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.08386773819799023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08474199241993637</v>
+        <v>0.1017261348290648</v>
       </c>
       <c r="H2" t="n">
-        <v>1.042420173395213</v>
+        <v>21.29352360608017</v>
       </c>
       <c r="I2" t="n">
-        <v>23.59358390711208</v>
+        <v>-11.93301775704541</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1163557203900243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1232941647648896</v>
+        <v>0.1040845169748119</v>
       </c>
       <c r="H3" t="n">
-        <v>5.96313129393865</v>
+        <v>-10.54628287640636</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.01542527876629707</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02606606164238651</v>
+        <v>-0.02524906764944638</v>
       </c>
       <c r="H4" t="n">
-        <v>-68.98275899777352</v>
+        <v>-63.68629722668907</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.07185167403132267</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01036525652738265</v>
+        <v>-0.006848189521895681</v>
       </c>
       <c r="H5" t="n">
-        <v>85.57409181188447</v>
+        <v>90.46899099537985</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03554566505616424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03386128906426435</v>
+        <v>0.04232963056391978</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.738625622107443</v>
+        <v>19.08521192960232</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.02029509832022692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04884726572672313</v>
+        <v>0.05205215838819094</v>
       </c>
       <c r="H7" t="n">
-        <v>140.6850410674777</v>
+        <v>156.4765026849545</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1410978967445591</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1498574066992334</v>
+        <v>-0.1410076249325467</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.208108098544041</v>
+        <v>0.06397814148557507</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.1368870102181998</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1342423540895483</v>
+        <v>-0.0931384134039961</v>
       </c>
       <c r="H9" t="n">
-        <v>1.931999336120997</v>
+        <v>31.95964083404833</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1080271231374757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06389265820825843</v>
+        <v>-0.08140593978849425</v>
       </c>
       <c r="H10" t="n">
-        <v>40.85498497729278</v>
+        <v>24.64305498083406</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0665408616371513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07570387819327916</v>
+        <v>-0.06838143202799279</v>
       </c>
       <c r="H11" t="n">
-        <v>-13.77051082700729</v>
+        <v>-2.766075379183044</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.415196323414642</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.355145767195666</v>
+        <v>-0.3062872950165193</v>
       </c>
       <c r="H12" t="n">
-        <v>14.46317147635376</v>
+        <v>26.23073044155044</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.4488993880358551</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.38328291969247</v>
+        <v>-0.4799252170516315</v>
       </c>
       <c r="H13" t="n">
-        <v>14.61718819232252</v>
+        <v>-6.911532927574017</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05073569601295556</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04731702611729585</v>
+        <v>-0.05834477140278677</v>
       </c>
       <c r="H14" t="n">
-        <v>6.738194534252047</v>
+        <v>-14.99747906855995</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08269143740784293</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03398353532849006</v>
+        <v>0.03166751905520186</v>
       </c>
       <c r="H15" t="n">
-        <v>58.90319917783064</v>
+        <v>138.2960074802114</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1460226857953172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1176299041054609</v>
+        <v>0.085056720387856</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.44408948185969</v>
+        <v>-41.75102318890255</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1226214852840535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1696191756508549</v>
+        <v>0.1513522822674456</v>
       </c>
       <c r="H17" t="n">
-        <v>38.32745155380473</v>
+        <v>23.4304754316399</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.138457180644299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1257455380488698</v>
+        <v>0.1377588984371945</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.180919715594834</v>
+        <v>-0.5043308002193144</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09540674480902199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1554091097657176</v>
+        <v>0.1245967731651461</v>
       </c>
       <c r="H19" t="n">
-        <v>62.89111433033775</v>
+        <v>30.59535089951397</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.02563405214441146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02851946484408382</v>
+        <v>0.0238422105451502</v>
       </c>
       <c r="H20" t="n">
-        <v>11.25617082861953</v>
+        <v>-6.990083304686983</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07516711252654941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0571340621353415</v>
+        <v>0.06612753755988257</v>
       </c>
       <c r="H21" t="n">
-        <v>-23.99061209759593</v>
+        <v>-12.0259707508041</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1217,10 +1217,10 @@
         <v>0.1004365069723881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08777057322145604</v>
+        <v>0.08597868876261189</v>
       </c>
       <c r="H24" t="n">
-        <v>-12.61088635272248</v>
+        <v>-14.39498310484945</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>0.1515465340033774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1627668706529699</v>
+        <v>0.190992809582956</v>
       </c>
       <c r="H25" t="n">
-        <v>7.403888662569121</v>
+        <v>26.02915060973912</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1283,10 +1283,10 @@
         <v>0.07912471148881932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07314343790096881</v>
+        <v>0.08153210251672185</v>
       </c>
       <c r="H26" t="n">
-        <v>-7.559299080282517</v>
+        <v>3.042527400864787</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1316,10 +1316,10 @@
         <v>0.09985262107691743</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09029633928040119</v>
+        <v>0.08042933580459205</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.570386529117695</v>
+        <v>-19.45195335169363</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1349,10 +1349,10 @@
         <v>-0.2131191845751652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2418225063297041</v>
+        <v>-0.2221245310133198</v>
       </c>
       <c r="H28" t="n">
-        <v>-13.46820175375412</v>
+        <v>-4.225497791813523</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1382,10 +1382,10 @@
         <v>-0.2053066758478273</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2096819259979749</v>
+        <v>-0.2131768830151092</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.13108031294146</v>
+        <v>-3.83339077250234</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>0.04413164265688801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04901987756793426</v>
+        <v>0.04760835927444473</v>
       </c>
       <c r="H30" t="n">
-        <v>11.07648529888407</v>
+        <v>7.878058481954279</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>0.02633311185268182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03159286549917024</v>
+        <v>0.03160195667561526</v>
       </c>
       <c r="H31" t="n">
-        <v>19.97391601840917</v>
+        <v>20.00843976363108</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>0.09496050876403064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1000229799695457</v>
+        <v>0.09093899487674141</v>
       </c>
       <c r="H32" t="n">
-        <v>5.331133195689698</v>
+        <v>-4.234932962798648</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.1039648869556523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1398811186130419</v>
+        <v>0.1285008660690005</v>
       </c>
       <c r="H33" t="n">
-        <v>34.54650190954391</v>
+        <v>23.60025565536792</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1547,10 +1547,10 @@
         <v>0.04642769130193861</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04629473990802215</v>
+        <v>0.03648537994083615</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2863622768830413</v>
+        <v>-21.41461503317809</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1580,10 +1580,10 @@
         <v>0.007576527544790857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02024525192158527</v>
+        <v>0.01119523783701483</v>
       </c>
       <c r="H35" t="n">
-        <v>167.2101672157798</v>
+        <v>47.76212151055888</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1613,10 +1613,10 @@
         <v>0.05773624592896012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06121738559377108</v>
+        <v>0.05069934834570633</v>
       </c>
       <c r="H36" t="n">
-        <v>6.029383464062114</v>
+        <v>-12.1880068058324</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1646,10 +1646,10 @@
         <v>0.07032615937045415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09505657619121473</v>
+        <v>0.08710397700073065</v>
       </c>
       <c r="H37" t="n">
-        <v>35.16531692067698</v>
+        <v>23.85715042662389</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>0.05238641136844833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02786707858175142</v>
+        <v>0.009988417534054259</v>
       </c>
       <c r="H38" t="n">
-        <v>-46.80475746705679</v>
+        <v>-80.93318997592159</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>0.02073732932611748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0415705448348859</v>
+        <v>0.02641625155537421</v>
       </c>
       <c r="H39" t="n">
-        <v>100.4623844331303</v>
+        <v>27.38502214990844</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1745,10 +1745,10 @@
         <v>-0.008490989520810347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005199291201779043</v>
+        <v>0.004009011956253929</v>
       </c>
       <c r="H40" t="n">
-        <v>161.2330422624623</v>
+        <v>147.2148969967322</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1778,10 +1778,10 @@
         <v>0.03535585401105827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03048685014122112</v>
+        <v>0.04438057546661396</v>
       </c>
       <c r="H41" t="n">
-        <v>-13.7714220347054</v>
+        <v>25.52539517991285</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1811,10 +1811,10 @@
         <v>0.1336861257851496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1439807322537644</v>
+        <v>0.1455590530514656</v>
       </c>
       <c r="H42" t="n">
-        <v>7.700579553901894</v>
+        <v>8.881196307085215</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1844,10 +1844,10 @@
         <v>0.1489763344906571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1485117435490588</v>
+        <v>0.1504298857027398</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.3118555327506884</v>
+        <v>0.9756926944486395</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>-0.008511481271239187</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.004225429036736303</v>
+        <v>-0.01154866942518077</v>
       </c>
       <c r="H44" t="n">
-        <v>50.35612601282124</v>
+        <v>-35.68342638788887</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>-0.01097986505977733</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.001142573481500866</v>
+        <v>0.009738881891338013</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59392055111434</v>
+        <v>188.6976464493591</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>-0.003293045908710408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007570830599660347</v>
+        <v>0.01332111482796823</v>
       </c>
       <c r="H46" t="n">
-        <v>329.9035849951198</v>
+        <v>504.5225969286569</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>-0.009278481095242833</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02170929581755342</v>
+        <v>-0.03985422012966428</v>
       </c>
       <c r="H47" t="n">
-        <v>-133.9746731680467</v>
+        <v>-329.5338829767937</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>0.05027211201244799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04951042073931265</v>
+        <v>0.0732223042245497</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.515136807752838</v>
+        <v>45.65193562271457</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2042,10 +2042,10 @@
         <v>0.0660647836333926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07308149737294023</v>
+        <v>0.06192338551369429</v>
       </c>
       <c r="H49" t="n">
-        <v>10.62095923674684</v>
+        <v>-6.268692474162636</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>0.1612576803179708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1699639866851714</v>
+        <v>0.1523186800358433</v>
       </c>
       <c r="H50" t="n">
-        <v>5.399002608764649</v>
+        <v>-5.543302039630862</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2108,10 +2108,10 @@
         <v>0.1711149594717241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1456389746321311</v>
+        <v>0.1662078747793498</v>
       </c>
       <c r="H51" t="n">
-        <v>-14.88822772611109</v>
+        <v>-2.867712272219629</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2141,10 +2141,10 @@
         <v>-0.1604310016173561</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1664366200929072</v>
+        <v>-0.1695033119434113</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.743427651143814</v>
+        <v>-5.654960845842983</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2174,10 +2174,10 @@
         <v>-0.1260545003542003</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1287061054412911</v>
+        <v>-0.1590418214801917</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.10353861198138</v>
+        <v>-26.16909434673128</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2207,10 +2207,10 @@
         <v>0.09372239519925994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1324501758550223</v>
+        <v>0.1195044352546354</v>
       </c>
       <c r="H54" t="n">
-        <v>41.32179995338848</v>
+        <v>27.5089427671595</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2240,10 +2240,10 @@
         <v>0.113080746643218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1250001293916364</v>
+        <v>0.1078362300526788</v>
       </c>
       <c r="H55" t="n">
-        <v>10.54059431180212</v>
+        <v>-4.63785104557739</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2273,10 +2273,10 @@
         <v>-0.007300771504361519</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02769906760815561</v>
+        <v>-0.01650360495763801</v>
       </c>
       <c r="H56" t="n">
-        <v>-279.3991852999104</v>
+        <v>-126.0528897223899</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2306,10 +2306,10 @@
         <v>-0.02286739124119412</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02168662540772742</v>
+        <v>-0.01693888215723816</v>
       </c>
       <c r="H57" t="n">
-        <v>5.163535363577587</v>
+        <v>25.92560306256595</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>0.05638797256277781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06698151312512451</v>
+        <v>0.05696028736865899</v>
       </c>
       <c r="H58" t="n">
-        <v>18.78687968529585</v>
+        <v>1.014959006096574</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2372,10 +2372,10 @@
         <v>0.07181992597016275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06585844772891644</v>
+        <v>0.07296475805731102</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.300590902478756</v>
+        <v>1.594031282660871</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2405,10 +2405,10 @@
         <v>0.06997395344439951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05890242968896087</v>
+        <v>0.04719781368694941</v>
       </c>
       <c r="H60" t="n">
-        <v>-15.82234990371945</v>
+        <v>-32.54945395581765</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2438,10 +2438,10 @@
         <v>0.04752678553020755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07271139302061902</v>
+        <v>0.07077194594613298</v>
       </c>
       <c r="H61" t="n">
-        <v>52.9903447276155</v>
+        <v>48.9095994113699</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>0.07296032751184069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07626640707222895</v>
+        <v>0.07611680605606318</v>
       </c>
       <c r="H62" t="n">
-        <v>4.531338705753103</v>
+        <v>4.326294373761176</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>0.06539350454256343</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06804087353861099</v>
+        <v>0.0756659439096507</v>
       </c>
       <c r="H63" t="n">
-        <v>4.048366905193829</v>
+        <v>15.70865400003319</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2537,10 +2537,10 @@
         <v>-0.04141550755634531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0317303215415714</v>
+        <v>-0.04186531977830304</v>
       </c>
       <c r="H64" t="n">
-        <v>23.38540944257976</v>
+        <v>-1.086096123162964</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2570,10 +2570,10 @@
         <v>-0.04932370769039912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009559373620914576</v>
+        <v>0.0272336423276875</v>
       </c>
       <c r="H65" t="n">
-        <v>119.3808901814884</v>
+        <v>155.2141021081198</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2603,10 +2603,10 @@
         <v>0.01893397540736123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02716256529430541</v>
+        <v>0.02878263240873565</v>
       </c>
       <c r="H66" t="n">
-        <v>43.45938826848288</v>
+        <v>52.01579060647462</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2636,10 +2636,10 @@
         <v>0.02614988585447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01961745882999849</v>
+        <v>0.03113408603254171</v>
       </c>
       <c r="H67" t="n">
-        <v>-24.9807095175409</v>
+        <v>19.06012211986882</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2669,10 +2669,10 @@
         <v>0.0005699533762532117</v>
       </c>
       <c r="G68" t="n">
-        <v>0.003938328107505674</v>
+        <v>-0.01431713002426085</v>
       </c>
       <c r="H68" t="n">
-        <v>590.9912760576408</v>
+        <v>-2611.982667491071</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>-0.01291230679249397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01171122498132751</v>
+        <v>0.01496830221565967</v>
       </c>
       <c r="H69" t="n">
-        <v>190.6981623774254</v>
+        <v>215.9227584676107</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2735,10 +2735,10 @@
         <v>-0.02744806811673924</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.03948035243566413</v>
+        <v>-0.03355111833996965</v>
       </c>
       <c r="H70" t="n">
-        <v>-43.83654349643278</v>
+        <v>-22.23489900008101</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2768,10 +2768,10 @@
         <v>-0.05509195098979366</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.03306707538665055</v>
+        <v>-0.03885132597881324</v>
       </c>
       <c r="H71" t="n">
-        <v>39.97839104885473</v>
+        <v>29.47912484346245</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>-0.1483341461777897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1293312793781893</v>
+        <v>-0.1265992073410618</v>
       </c>
       <c r="H72" t="n">
-        <v>12.81085123638627</v>
+        <v>14.65268746056415</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2834,10 +2834,10 @@
         <v>-0.1447898360031475</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1461414291459345</v>
+        <v>-0.1569735785354142</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.933486203242633</v>
+        <v>-8.414777493084422</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2867,10 +2867,10 @@
         <v>0.1260511056358319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.146236662701106</v>
+        <v>0.1218881767594388</v>
       </c>
       <c r="H74" t="n">
-        <v>16.01378818809507</v>
+        <v>-3.302572282404267</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2900,10 +2900,10 @@
         <v>0.1351719772156388</v>
       </c>
       <c r="G75" t="n">
-        <v>0.146585111236492</v>
+        <v>0.160546477925136</v>
       </c>
       <c r="H75" t="n">
-        <v>8.443417234805935</v>
+        <v>18.77201268500899</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2933,10 +2933,10 @@
         <v>-0.03443794504108685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04758209433378748</v>
+        <v>-0.06542549730318846</v>
       </c>
       <c r="H76" t="n">
-        <v>-38.16763537144495</v>
+        <v>-89.98084010277421</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2966,10 +2966,10 @@
         <v>-0.04618700783972088</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03536116151610885</v>
+        <v>-0.03175318904640758</v>
       </c>
       <c r="H77" t="n">
-        <v>23.43915925703632</v>
+        <v>31.25082023802416</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2999,10 +2999,10 @@
         <v>0.09217153817668759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07833183570200634</v>
+        <v>0.09199803682596355</v>
       </c>
       <c r="H78" t="n">
-        <v>-15.01515841924144</v>
+        <v>-0.1882374474335531</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3032,10 +3032,10 @@
         <v>0.0965044294726429</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1038733755289636</v>
+        <v>0.09498114591721894</v>
       </c>
       <c r="H79" t="n">
-        <v>7.635863034048246</v>
+        <v>-1.578459728478865</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3065,10 +3065,10 @@
         <v>-0.1624128583924336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1925323710809149</v>
+        <v>-0.1886796654908553</v>
       </c>
       <c r="H80" t="n">
-        <v>-18.54502961563816</v>
+        <v>-16.17286177856309</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>-0.2164484580182171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1851666689320838</v>
+        <v>-0.1891600139371402</v>
       </c>
       <c r="H81" t="n">
-        <v>14.45230396767276</v>
+        <v>12.60736358712254</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>0.1387462790863944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1630484570105964</v>
+        <v>0.1623815879743861</v>
       </c>
       <c r="H82" t="n">
-        <v>17.51555291012132</v>
+        <v>17.03491368822547</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3164,10 +3164,10 @@
         <v>0.1646195949787939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1947080810003642</v>
+        <v>0.203840514984346</v>
       </c>
       <c r="H83" t="n">
-        <v>18.277584770784</v>
+        <v>23.82518315064771</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3197,10 +3197,10 @@
         <v>0.01399502756006869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.007823077013249097</v>
+        <v>0.06732362981211748</v>
       </c>
       <c r="H84" t="n">
-        <v>-44.101024598406</v>
+        <v>381.0539280694853</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3230,14 +3230,14 @@
         <v>0.02263918370437177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03253500298388964</v>
+        <v>0.002897458319204544</v>
       </c>
       <c r="H85" t="n">
-        <v>43.71102513562325</v>
+        <v>-87.20157777311987</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>